--- a/data/agg_matrix_opti.xlsx
+++ b/data/agg_matrix_opti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubuntu\M2_EEET\Modelisation_Prospective\Projet_modelisation\MatMat-Trade\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEFCCD3-80EC-4E84-859E-79C86197D581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F11C9-0375-4EF3-992F-5582567CF779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14463,7 +14463,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
